--- a/week1/results/experiment_s4.xlsx
+++ b/week1/results/experiment_s4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10220"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlk/Desktop/Artificial Intelligence/Master/1st Year/Knowledge Representation/week1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A4257D-5D96-CF4C-8DFE-5F6B43437D5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A2C30E-DB52-9345-A782-235179F642AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="940" windowWidth="27640" windowHeight="15760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_s4" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Repetition: 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Overall average</t>
   </si>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -181,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,12 +356,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -534,10 +525,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -893,761 +883,756 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IF6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:240" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>97</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>220</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>362</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>477</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>38</v>
+      </c>
+      <c r="K1">
+        <v>19</v>
+      </c>
+      <c r="L1">
+        <v>302</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>226</v>
+      </c>
+      <c r="O1">
+        <v>26</v>
+      </c>
+      <c r="P1">
+        <v>63</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>40</v>
+      </c>
+      <c r="S1">
+        <v>27</v>
+      </c>
+      <c r="T1">
+        <v>67</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>37</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>114</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>194</v>
+      </c>
+      <c r="AA1">
+        <v>50</v>
+      </c>
+      <c r="AB1">
+        <v>372</v>
+      </c>
+      <c r="AC1">
+        <v>63</v>
+      </c>
+      <c r="AD1">
+        <v>1580</v>
+      </c>
+      <c r="AE1">
+        <v>24915</v>
+      </c>
+      <c r="AF1">
+        <v>38085</v>
+      </c>
+      <c r="AG1">
+        <v>85908</v>
+      </c>
+      <c r="AH1">
+        <v>79416</v>
+      </c>
+      <c r="AI1">
+        <v>121033</v>
+      </c>
+      <c r="AJ1">
+        <v>296</v>
+      </c>
+      <c r="AK1">
+        <v>378</v>
+      </c>
+      <c r="AL1">
+        <v>2136</v>
+      </c>
+      <c r="AM1">
+        <v>68726</v>
+      </c>
+      <c r="AN1">
+        <v>221553</v>
+      </c>
+      <c r="AO1">
+        <v>3746</v>
+      </c>
+      <c r="AP1">
+        <v>11834</v>
+      </c>
+      <c r="AQ1">
+        <v>59155</v>
+      </c>
+      <c r="AR1">
+        <v>18875</v>
+      </c>
+      <c r="AS1">
+        <v>19267</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>5758</v>
+      </c>
+      <c r="AW1">
+        <v>32719</v>
+      </c>
+      <c r="AX1">
+        <v>26352</v>
+      </c>
+      <c r="AY1">
+        <v>75</v>
+      </c>
+      <c r="AZ1">
+        <v>18541</v>
+      </c>
+      <c r="BA1">
+        <v>8168</v>
+      </c>
+      <c r="BB1">
+        <v>10989</v>
+      </c>
+      <c r="BC1">
+        <v>18575</v>
+      </c>
+      <c r="BD1">
+        <v>54808</v>
+      </c>
+      <c r="BE1">
+        <v>547</v>
+      </c>
+      <c r="BF1">
+        <v>5693</v>
+      </c>
+      <c r="BG1">
+        <v>161172</v>
+      </c>
+      <c r="BH1">
+        <v>63649</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>50</v>
+      </c>
+      <c r="BL1">
+        <v>17</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>46</v>
+      </c>
+      <c r="BO1">
+        <v>48</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>198</v>
+      </c>
+      <c r="BS1">
+        <v>96</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>11431</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>7</v>
+      </c>
+      <c r="CD1">
+        <v>2553</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>91</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>0</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>788</v>
+      </c>
+      <c r="CM1">
+        <v>200006</v>
+      </c>
+      <c r="CN1">
+        <v>730</v>
+      </c>
+      <c r="CO1">
+        <v>4403</v>
+      </c>
+      <c r="CP1">
+        <v>2651</v>
+      </c>
+      <c r="CQ1">
+        <v>5131</v>
+      </c>
+      <c r="CR1">
+        <v>995</v>
+      </c>
+      <c r="CS1">
+        <v>35992</v>
+      </c>
+      <c r="CT1">
+        <v>11139</v>
+      </c>
+      <c r="CU1">
+        <v>11117</v>
+      </c>
+      <c r="CV1">
+        <v>2841</v>
+      </c>
+      <c r="CW1">
+        <v>3270</v>
+      </c>
+      <c r="CX1">
+        <v>3087</v>
+      </c>
+      <c r="CY1">
+        <v>2673</v>
+      </c>
+      <c r="CZ1">
+        <v>1081</v>
+      </c>
+      <c r="DA1">
+        <v>1401</v>
+      </c>
+      <c r="DB1">
+        <v>593</v>
+      </c>
+      <c r="DC1">
+        <v>51384</v>
+      </c>
+      <c r="DD1">
+        <v>765</v>
+      </c>
+      <c r="DE1">
+        <v>16796</v>
+      </c>
+      <c r="DF1">
+        <v>554</v>
+      </c>
+      <c r="DG1">
+        <v>7506</v>
+      </c>
+      <c r="DH1">
+        <v>90</v>
+      </c>
+      <c r="DI1">
+        <v>19267</v>
+      </c>
+      <c r="DJ1">
+        <v>2770</v>
+      </c>
+      <c r="DK1">
+        <v>31170</v>
+      </c>
+      <c r="DL1">
+        <v>452</v>
+      </c>
+      <c r="DM1">
+        <v>629</v>
+      </c>
+      <c r="DN1">
+        <v>3121</v>
+      </c>
+      <c r="DO1">
+        <v>118</v>
+      </c>
+      <c r="DP1">
+        <v>121033</v>
+      </c>
+      <c r="DQ1">
+        <v>1035</v>
+      </c>
+      <c r="DR1">
+        <v>1224</v>
+      </c>
+      <c r="DS1">
+        <v>593</v>
+      </c>
+      <c r="DT1">
+        <v>562</v>
+      </c>
+      <c r="DU1">
+        <v>945</v>
+      </c>
+      <c r="DV1">
+        <v>2022</v>
+      </c>
+      <c r="DW1">
+        <v>2709</v>
+      </c>
+      <c r="DX1">
+        <v>1414</v>
+      </c>
+      <c r="DY1">
+        <v>1010</v>
+      </c>
+      <c r="DZ1">
+        <v>768</v>
+      </c>
+      <c r="EA1">
+        <v>1492</v>
+      </c>
+      <c r="EB1">
+        <v>549</v>
+      </c>
+      <c r="EC1">
+        <v>67751</v>
+      </c>
+      <c r="ED1">
+        <v>1852</v>
+      </c>
+      <c r="EE1">
+        <v>1178</v>
+      </c>
+      <c r="EF1">
+        <v>1092</v>
+      </c>
+      <c r="EG1">
+        <v>1587</v>
+      </c>
+      <c r="EH1">
+        <v>4815</v>
+      </c>
+      <c r="EI1">
+        <v>1484</v>
+      </c>
+      <c r="EJ1">
+        <v>3474</v>
+      </c>
+      <c r="EK1">
+        <v>1090</v>
+      </c>
+      <c r="EL1">
+        <v>266</v>
+      </c>
+      <c r="EM1">
+        <v>920</v>
+      </c>
+      <c r="EN1">
+        <v>4205</v>
+      </c>
+      <c r="EO1">
+        <v>1664</v>
+      </c>
+      <c r="EP1">
+        <v>1032</v>
+      </c>
+      <c r="EQ1">
+        <v>643</v>
+      </c>
+      <c r="ER1">
+        <v>2939</v>
+      </c>
+      <c r="ES1">
+        <v>1127</v>
+      </c>
+      <c r="ET1">
+        <v>1571</v>
+      </c>
+      <c r="EU1">
+        <v>1440</v>
+      </c>
+      <c r="EV1">
+        <v>317810</v>
+      </c>
+      <c r="EW1">
+        <v>15686</v>
+      </c>
+      <c r="EX1">
+        <v>211</v>
+      </c>
+      <c r="EY1">
+        <v>3055</v>
+      </c>
+      <c r="EZ1">
+        <v>1899</v>
+      </c>
+      <c r="FA1">
+        <v>3988</v>
+      </c>
+      <c r="FB1">
+        <v>1550</v>
+      </c>
+      <c r="FC1">
+        <v>18167</v>
+      </c>
+      <c r="FD1">
+        <v>3416</v>
+      </c>
+      <c r="FE1">
+        <v>6920</v>
+      </c>
+      <c r="FF1">
+        <v>2002</v>
+      </c>
+      <c r="FG1">
+        <v>2957</v>
+      </c>
+      <c r="FH1">
+        <v>917</v>
+      </c>
+      <c r="FI1">
+        <v>4853</v>
+      </c>
+      <c r="FJ1">
+        <v>1515</v>
+      </c>
+      <c r="FK1">
+        <v>956</v>
+      </c>
+      <c r="FL1">
+        <v>1595</v>
+      </c>
+      <c r="FM1">
+        <v>1583</v>
+      </c>
+      <c r="FN1">
+        <v>1213</v>
+      </c>
+      <c r="FO1">
+        <v>3463</v>
+      </c>
+      <c r="FP1">
+        <v>1049</v>
+      </c>
+      <c r="FQ1">
+        <v>760</v>
+      </c>
+      <c r="FR1">
+        <v>659</v>
+      </c>
+      <c r="FS1">
+        <v>690</v>
+      </c>
+      <c r="FT1">
+        <v>1355</v>
+      </c>
+      <c r="FU1">
+        <v>4273</v>
+      </c>
+      <c r="FV1">
+        <v>565</v>
+      </c>
+      <c r="FW1">
+        <v>649</v>
+      </c>
+      <c r="FX1">
+        <v>4404</v>
+      </c>
+      <c r="FY1">
+        <v>3774</v>
+      </c>
+      <c r="FZ1">
+        <v>59624</v>
+      </c>
+      <c r="GA1">
+        <v>22162</v>
+      </c>
+      <c r="GB1">
+        <v>4164</v>
+      </c>
+      <c r="GC1">
+        <v>861</v>
+      </c>
+      <c r="GD1">
+        <v>2286</v>
+      </c>
+      <c r="GE1">
+        <v>8543</v>
+      </c>
+      <c r="GF1">
+        <v>221553</v>
+      </c>
+      <c r="GG1">
+        <v>3988</v>
+      </c>
+      <c r="GH1">
+        <v>4992</v>
+      </c>
+      <c r="GI1">
+        <v>18632</v>
+      </c>
+      <c r="GJ1">
+        <v>5043</v>
+      </c>
+      <c r="GK1">
+        <v>1857</v>
+      </c>
+      <c r="GL1">
+        <v>17317</v>
+      </c>
+      <c r="GM1">
+        <v>20960</v>
+      </c>
+      <c r="GN1">
+        <v>5210</v>
+      </c>
+      <c r="GO1">
+        <v>4040</v>
+      </c>
+      <c r="GP1">
+        <v>8085</v>
+      </c>
+      <c r="GQ1">
+        <v>10127</v>
+      </c>
+      <c r="GR1">
+        <v>47866</v>
+      </c>
+      <c r="GS1">
+        <v>2785</v>
+      </c>
+      <c r="GT1">
+        <v>4975</v>
+      </c>
+      <c r="GU1">
+        <v>5681</v>
+      </c>
+      <c r="GV1">
+        <v>4273</v>
+      </c>
+      <c r="GW1">
+        <v>7036</v>
+      </c>
+      <c r="GX1">
+        <v>6495</v>
+      </c>
+      <c r="GY1">
+        <v>2406</v>
+      </c>
+      <c r="GZ1">
+        <v>2918</v>
+      </c>
+      <c r="HA1">
+        <v>730</v>
+      </c>
+      <c r="HB1">
+        <v>22816</v>
+      </c>
+      <c r="HC1">
+        <v>34411</v>
+      </c>
+      <c r="HD1">
+        <v>861</v>
+      </c>
+      <c r="HE1">
+        <v>2286</v>
+      </c>
+      <c r="HF1">
+        <v>5865</v>
+      </c>
+      <c r="HG1">
+        <v>359673</v>
+      </c>
+      <c r="HH1">
+        <v>2805</v>
+      </c>
+      <c r="HI1">
+        <v>8085</v>
+      </c>
+      <c r="HJ1">
+        <v>4837</v>
+      </c>
+      <c r="HK1">
+        <v>3988</v>
+      </c>
+      <c r="HL1">
+        <v>2714</v>
+      </c>
+      <c r="HM1">
+        <v>47866</v>
+      </c>
+      <c r="HN1">
+        <v>384</v>
+      </c>
+      <c r="HO1">
+        <v>672</v>
+      </c>
+      <c r="HP1">
+        <v>7232</v>
+      </c>
+      <c r="HQ1">
+        <v>964</v>
+      </c>
+      <c r="HR1">
+        <v>6713</v>
+      </c>
+      <c r="HS1">
+        <v>6085</v>
+      </c>
+      <c r="HT1">
+        <v>13282</v>
+      </c>
+      <c r="HU1">
+        <v>53165</v>
+      </c>
+      <c r="HV1">
+        <v>2320</v>
+      </c>
+      <c r="HW1">
+        <v>40368</v>
+      </c>
+      <c r="HX1">
+        <v>3618</v>
+      </c>
+      <c r="HY1">
+        <v>299</v>
+      </c>
+      <c r="HZ1">
+        <v>38729</v>
+      </c>
+      <c r="IA1">
+        <v>42591</v>
+      </c>
+      <c r="IB1">
+        <v>5059</v>
+      </c>
+      <c r="IC1">
+        <v>3265</v>
+      </c>
+      <c r="ID1">
+        <v>3888</v>
+      </c>
+      <c r="IE1">
+        <v>2269</v>
+      </c>
+      <c r="IF1">
+        <v>2586</v>
       </c>
     </row>
     <row r="2" spans="1:240" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>97</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>220</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>362</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>477</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <v>302</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>226</v>
-      </c>
-      <c r="O2">
-        <v>26</v>
-      </c>
-      <c r="P2">
-        <v>63</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>40</v>
-      </c>
-      <c r="S2">
-        <v>27</v>
-      </c>
-      <c r="T2">
-        <v>67</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>37</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>114</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>194</v>
-      </c>
-      <c r="AA2">
-        <v>50</v>
-      </c>
-      <c r="AB2">
-        <v>372</v>
-      </c>
-      <c r="AC2">
-        <v>63</v>
-      </c>
-      <c r="AD2">
-        <v>1580</v>
-      </c>
-      <c r="AE2">
-        <v>24915</v>
-      </c>
-      <c r="AF2">
-        <v>38085</v>
-      </c>
-      <c r="AG2">
-        <v>85908</v>
-      </c>
-      <c r="AH2">
-        <v>79416</v>
-      </c>
-      <c r="AI2">
-        <v>121033</v>
-      </c>
-      <c r="AJ2">
-        <v>296</v>
-      </c>
-      <c r="AK2">
-        <v>378</v>
-      </c>
-      <c r="AL2">
-        <v>2136</v>
-      </c>
-      <c r="AM2">
-        <v>68726</v>
-      </c>
-      <c r="AN2">
-        <v>221553</v>
-      </c>
-      <c r="AO2">
-        <v>3746</v>
-      </c>
-      <c r="AP2">
-        <v>11834</v>
-      </c>
-      <c r="AQ2">
-        <v>59155</v>
-      </c>
-      <c r="AR2">
-        <v>18875</v>
-      </c>
-      <c r="AS2">
-        <v>19267</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>5758</v>
-      </c>
-      <c r="AW2">
-        <v>32719</v>
-      </c>
-      <c r="AX2">
-        <v>26352</v>
-      </c>
-      <c r="AY2">
-        <v>75</v>
-      </c>
-      <c r="AZ2">
-        <v>18541</v>
-      </c>
-      <c r="BA2">
-        <v>8168</v>
-      </c>
-      <c r="BB2">
-        <v>10989</v>
-      </c>
-      <c r="BC2">
-        <v>18575</v>
-      </c>
-      <c r="BD2">
-        <v>54808</v>
-      </c>
-      <c r="BE2">
-        <v>547</v>
-      </c>
-      <c r="BF2">
-        <v>5693</v>
-      </c>
-      <c r="BG2">
-        <v>161172</v>
-      </c>
-      <c r="BH2">
-        <v>63649</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>50</v>
-      </c>
-      <c r="BL2">
-        <v>17</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>46</v>
-      </c>
-      <c r="BO2">
-        <v>48</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>198</v>
-      </c>
-      <c r="BS2">
-        <v>96</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>11431</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>7</v>
-      </c>
-      <c r="CD2">
-        <v>2553</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>91</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>788</v>
-      </c>
-      <c r="CM2">
-        <v>200006</v>
-      </c>
-      <c r="CN2">
-        <v>730</v>
-      </c>
-      <c r="CO2">
-        <v>4403</v>
-      </c>
-      <c r="CP2">
-        <v>2651</v>
-      </c>
-      <c r="CQ2">
-        <v>5131</v>
-      </c>
-      <c r="CR2">
-        <v>995</v>
-      </c>
-      <c r="CS2">
-        <v>35992</v>
-      </c>
-      <c r="CT2">
-        <v>11139</v>
-      </c>
-      <c r="CU2">
-        <v>11117</v>
-      </c>
-      <c r="CV2">
-        <v>2841</v>
-      </c>
-      <c r="CW2">
-        <v>3270</v>
-      </c>
-      <c r="CX2">
-        <v>3087</v>
-      </c>
-      <c r="CY2">
-        <v>2673</v>
-      </c>
-      <c r="CZ2">
-        <v>1081</v>
-      </c>
-      <c r="DA2">
-        <v>1401</v>
-      </c>
-      <c r="DB2">
-        <v>593</v>
-      </c>
-      <c r="DC2">
-        <v>51384</v>
-      </c>
-      <c r="DD2">
-        <v>765</v>
-      </c>
-      <c r="DE2">
-        <v>16796</v>
-      </c>
-      <c r="DF2">
-        <v>554</v>
-      </c>
-      <c r="DG2">
-        <v>7506</v>
-      </c>
-      <c r="DH2">
-        <v>90</v>
-      </c>
-      <c r="DI2">
-        <v>19267</v>
-      </c>
-      <c r="DJ2">
-        <v>2770</v>
-      </c>
-      <c r="DK2">
-        <v>31170</v>
-      </c>
-      <c r="DL2">
-        <v>452</v>
-      </c>
-      <c r="DM2">
-        <v>629</v>
-      </c>
-      <c r="DN2">
-        <v>3121</v>
-      </c>
-      <c r="DO2">
-        <v>118</v>
-      </c>
-      <c r="DP2">
-        <v>121033</v>
-      </c>
-      <c r="DQ2">
-        <v>1035</v>
-      </c>
-      <c r="DR2">
-        <v>1224</v>
-      </c>
-      <c r="DS2">
-        <v>593</v>
-      </c>
-      <c r="DT2">
-        <v>562</v>
-      </c>
-      <c r="DU2">
-        <v>945</v>
-      </c>
-      <c r="DV2">
-        <v>2022</v>
-      </c>
-      <c r="DW2">
-        <v>2709</v>
-      </c>
-      <c r="DX2">
-        <v>1414</v>
-      </c>
-      <c r="DY2">
-        <v>1010</v>
-      </c>
-      <c r="DZ2">
-        <v>768</v>
-      </c>
-      <c r="EA2">
-        <v>1492</v>
-      </c>
-      <c r="EB2">
-        <v>549</v>
-      </c>
-      <c r="EC2">
-        <v>67751</v>
-      </c>
-      <c r="ED2">
-        <v>1852</v>
-      </c>
-      <c r="EE2">
-        <v>1178</v>
-      </c>
-      <c r="EF2">
-        <v>1092</v>
-      </c>
-      <c r="EG2">
-        <v>1587</v>
-      </c>
-      <c r="EH2">
-        <v>4815</v>
-      </c>
-      <c r="EI2">
-        <v>1484</v>
-      </c>
-      <c r="EJ2">
-        <v>3474</v>
-      </c>
-      <c r="EK2">
-        <v>1090</v>
-      </c>
-      <c r="EL2">
-        <v>266</v>
-      </c>
-      <c r="EM2">
-        <v>920</v>
-      </c>
-      <c r="EN2">
-        <v>4205</v>
-      </c>
-      <c r="EO2">
-        <v>1664</v>
-      </c>
-      <c r="EP2">
-        <v>1032</v>
-      </c>
-      <c r="EQ2">
-        <v>643</v>
-      </c>
-      <c r="ER2">
-        <v>2939</v>
-      </c>
-      <c r="ES2">
-        <v>1127</v>
-      </c>
-      <c r="ET2">
-        <v>1571</v>
-      </c>
-      <c r="EU2">
-        <v>1440</v>
-      </c>
-      <c r="EV2">
-        <v>317810</v>
-      </c>
-      <c r="EW2">
-        <v>15686</v>
-      </c>
-      <c r="EX2">
-        <v>211</v>
-      </c>
-      <c r="EY2">
-        <v>3055</v>
-      </c>
-      <c r="EZ2">
-        <v>1899</v>
-      </c>
-      <c r="FA2">
-        <v>3988</v>
-      </c>
-      <c r="FB2">
-        <v>1550</v>
-      </c>
-      <c r="FC2">
-        <v>18167</v>
-      </c>
-      <c r="FD2">
-        <v>3416</v>
-      </c>
-      <c r="FE2">
-        <v>6920</v>
-      </c>
-      <c r="FF2">
-        <v>2002</v>
-      </c>
-      <c r="FG2">
-        <v>2957</v>
-      </c>
-      <c r="FH2">
-        <v>917</v>
-      </c>
-      <c r="FI2">
-        <v>4853</v>
-      </c>
-      <c r="FJ2">
-        <v>1515</v>
-      </c>
-      <c r="FK2">
-        <v>956</v>
-      </c>
-      <c r="FL2">
-        <v>1595</v>
-      </c>
-      <c r="FM2">
-        <v>1583</v>
-      </c>
-      <c r="FN2">
-        <v>1213</v>
-      </c>
-      <c r="FO2">
-        <v>3463</v>
-      </c>
-      <c r="FP2">
-        <v>1049</v>
-      </c>
-      <c r="FQ2">
-        <v>760</v>
-      </c>
-      <c r="FR2">
-        <v>659</v>
-      </c>
-      <c r="FS2">
-        <v>690</v>
-      </c>
-      <c r="FT2">
-        <v>1355</v>
-      </c>
-      <c r="FU2">
-        <v>4273</v>
-      </c>
-      <c r="FV2">
-        <v>565</v>
-      </c>
-      <c r="FW2">
-        <v>649</v>
-      </c>
-      <c r="FX2">
-        <v>4404</v>
-      </c>
-      <c r="FY2">
-        <v>3774</v>
-      </c>
-      <c r="FZ2">
-        <v>59624</v>
-      </c>
-      <c r="GA2">
-        <v>22162</v>
-      </c>
-      <c r="GB2">
-        <v>4164</v>
-      </c>
-      <c r="GC2">
-        <v>861</v>
-      </c>
-      <c r="GD2">
-        <v>2286</v>
-      </c>
-      <c r="GE2">
-        <v>8543</v>
-      </c>
-      <c r="GF2">
-        <v>221553</v>
-      </c>
-      <c r="GG2">
-        <v>3988</v>
-      </c>
-      <c r="GH2">
-        <v>4992</v>
-      </c>
-      <c r="GI2">
-        <v>18632</v>
-      </c>
-      <c r="GJ2">
-        <v>5043</v>
-      </c>
-      <c r="GK2">
-        <v>1857</v>
-      </c>
-      <c r="GL2">
-        <v>17317</v>
-      </c>
-      <c r="GM2">
-        <v>20960</v>
-      </c>
-      <c r="GN2">
-        <v>5210</v>
-      </c>
-      <c r="GO2">
-        <v>4040</v>
-      </c>
-      <c r="GP2">
-        <v>8085</v>
-      </c>
-      <c r="GQ2">
-        <v>10127</v>
-      </c>
-      <c r="GR2">
-        <v>47866</v>
-      </c>
-      <c r="GS2">
-        <v>2785</v>
-      </c>
-      <c r="GT2">
-        <v>4975</v>
-      </c>
-      <c r="GU2">
-        <v>5681</v>
-      </c>
-      <c r="GV2">
-        <v>4273</v>
-      </c>
-      <c r="GW2">
-        <v>7036</v>
-      </c>
-      <c r="GX2">
-        <v>6495</v>
-      </c>
-      <c r="GY2">
-        <v>2406</v>
-      </c>
-      <c r="GZ2">
-        <v>2918</v>
-      </c>
-      <c r="HA2">
-        <v>730</v>
-      </c>
-      <c r="HB2">
-        <v>22816</v>
-      </c>
-      <c r="HC2">
-        <v>34411</v>
-      </c>
-      <c r="HD2">
-        <v>861</v>
-      </c>
-      <c r="HE2">
-        <v>2286</v>
-      </c>
-      <c r="HF2">
-        <v>5865</v>
-      </c>
-      <c r="HG2">
-        <v>359673</v>
-      </c>
-      <c r="HH2">
-        <v>2805</v>
-      </c>
-      <c r="HI2">
-        <v>8085</v>
-      </c>
-      <c r="HJ2">
-        <v>4837</v>
-      </c>
-      <c r="HK2">
-        <v>3988</v>
-      </c>
-      <c r="HL2">
-        <v>2714</v>
-      </c>
-      <c r="HM2">
-        <v>47866</v>
-      </c>
-      <c r="HN2">
-        <v>384</v>
-      </c>
-      <c r="HO2">
-        <v>672</v>
-      </c>
-      <c r="HP2">
-        <v>7232</v>
-      </c>
-      <c r="HQ2">
-        <v>964</v>
-      </c>
-      <c r="HR2">
-        <v>6713</v>
-      </c>
-      <c r="HS2">
-        <v>6085</v>
-      </c>
-      <c r="HT2">
-        <v>13282</v>
-      </c>
-      <c r="HU2">
-        <v>53165</v>
-      </c>
-      <c r="HV2">
-        <v>2320</v>
-      </c>
-      <c r="HW2">
-        <v>40368</v>
-      </c>
-      <c r="HX2">
-        <v>3618</v>
-      </c>
-      <c r="HY2">
-        <v>299</v>
-      </c>
-      <c r="HZ2">
-        <v>38729</v>
-      </c>
-      <c r="IA2">
-        <v>42591</v>
-      </c>
-      <c r="IB2">
-        <v>5059</v>
-      </c>
-      <c r="IC2">
-        <v>3265</v>
-      </c>
-      <c r="ID2">
-        <v>3888</v>
-      </c>
-      <c r="IE2">
-        <v>2269</v>
-      </c>
-      <c r="IF2">
-        <v>2586</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:240" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="2">
+        <f>AVERAGE(1:1)</f>
+        <v>14523.020833333334</v>
       </c>
     </row>
     <row r="4" spans="1:240" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <f>AVERAGE(2:2)</f>
-        <v>14523.020833333334</v>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:240" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:240" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <f>STDEV(2:2)</f>
+      <c r="A5" s="2">
+        <f>STDEV(1:1)</f>
         <v>42893.913496065288</v>
       </c>
     </row>
